--- a/notebooks/metrics_bernn(3).xlsx
+++ b/notebooks/metrics_bernn(3).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="alzheimer classif values" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,8 @@
     <sheet name="amide metrics values" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="mice classif values" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="mice metrics values" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="multi classif values" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="multi metrics values" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="674">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -819,35 +821,7 @@
     <t xml:space="preserve">[0.6597,0.6839,0.5763]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.2355</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,0.1336,0.2372]</t>
-    </r>
+    <t xml:space="preserve">[0.2355,0.1336,0.2372]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.1484,0.2191,0.202]</t>
@@ -1655,6 +1629,426 @@
   </si>
   <si>
     <t xml:space="preserve">[0.0954,0.0963,0.0945,0.092,0.0957]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.992824314070865, 0.9964065950278898, 0.9892642357466144, 0.9928130926105275, 0.989219509087954] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9955634586792647, 0.9955960621051226, 0.9867916921633538, 1.0, 0.9866899170712465] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9937304075235109, 0.9968652037617555, 0.9905956112852664, 0.9937304075235109, 0.9905956112852664] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9961240310077519, 0.9961538461538462, 0.9883720930232558, 1.0, 0.9883720930232558] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9964065950278898, 0.9964065950278898, 0.9892642357466144, 0.9928130926105275, 0.9928130926105275] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9968652037617555, 0.9968652037617555, 0.9905956112852664, 0.9937304075235109, 0.9937304075235109] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9964065950278898, 0.9964065950278898, 0.9964065950278898, 0.989219509087954, 0.9964065950278898] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9866560791402593, 0.9779122954602715, 0.9955636112549628, 1.0, 0.9866563093388573] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9968652037617555, 0.9968652037617555, 0.9968652037617555, 0.9905956112852664, 0.9968652037617555] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9883720930232558, 0.9807692307692307, 0.9961240310077519, 1.0, 0.9883720930232558] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9964065950278898, 0.9964065950278898, 0.992824314070865, 0.9928130926105275, 0.989219509087954] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9968652037617555, 0.9968652037617555, 0.9937304075235109, 0.9937304075235109, 0.9905956112852664] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.974817830368166, 0.9676885547320043, 0.9748443638630804, 0.9640493175199998, 0.9676344279213135] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9599828577030599, 0.9605216841857208, 0.9778506726114208, 0.9736461799625051, 0.960057673573162] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9780564263322884, 0.9717868338557993, 0.9780564263322884, 0.9686520376175548, 0.9717868338557993] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9651162790697675, 0.9653846153846154, 0.9806201550387597, 0.9769230769230769, 0.9651162790697675] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9964065950278898, 0.9964065950278898, 0.9964065950278898, 0.9928130926105275, 0.989219509087954] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.0, 0.9955960621051226, 0.9867916921633538, 1.0, 0.9866899170712465] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9968652037617555, 0.9968652037617555, 0.9968652037617555, 0.9937304075235109, 0.9905956112852664] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.0, 0.9961538461538462, 0.9883720930232558, 1.0, 0.9883720930232558] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9892399847799112, 0.9928130926105275, 0.9928130926105275, 0.9784233689711024, 0.9928130926105275] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9867549237357711, 0.9868520097478625, 0.9955634586792647, 0.9911770912075185, 0.9822320109610752] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9905956112852664, 0.9937304075235109, 0.9937304075235109, 0.9811912225705329, 0.9937304075235109] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9883720930232558, 0.9884615384615385, 0.9961240310077519, 0.9923076923076923, 0.9844961240310077] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.0031488546272901157, 0.010681063393377922, 0.07955202127492449, -0.0019134530459648026, -0.0369881943636432] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.0003364307900148565, -0.0042320231638334005, -0.024372366356823626, -0.0014182794516801127, -0.01605409140379918] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.15047021943573669, 0.15673981191222572, 0.21003134796238246, 0.14420062695924765, 0.11598746081504702] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.14728682170542637, 0.1423076923076923, 0.12015503875968993, 0.14615384615384616, 0.13178294573643412] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9498816703985336, 0.949763424967225, 0.9533786619661584, 0.9392828372288385, 0.9212974648749761] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9159385537709915, 0.9079309860341962, 0.9382557390698366, 0.9563797877437779, 0.8894814685690037] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9561128526645768, 0.9561128526645768, 0.9592476489028213, 0.9467084639498433, 0.9310344827586207] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9263565891472868, 0.9192307692307692, 0.9457364341085271, 0.9615384615384616, 0.9031007751937985] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.081160140005952, 0.09655458193251222, 0.06296115952932899, 0.01091943464952464, 0.1093432040884474] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.0026801188003731406, -0.033391844887626386, 0.009330980084743921, 0.15250500016768795, 0.008778083657151737] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.14733542319749215, 0.12225705329153605, 0.15673981191222572, 0.2727272727272727, 0.15673981191222572] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.2131782945736434, 0.22692307692307692, 0.19767441860465115, 0.1576923076923077, 0.2364341085271318] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9152582075452353, 0.8781171002321139, 0.9284101562183307, 0.935422368859109, 0.916934687210544] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9465561885033661, 0.9345295586685294, 0.9200449032154292, 0.9514351810881063, 0.9332113450612782] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9247648902821317, 0.8871473354231975, 0.9373040752351097, 0.9435736677115988, 0.9247648902821317] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9534883720930233, 0.9423076923076923, 0.9302325581395349, 0.9576923076923077, 0.9418604651162791] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9856592677757309, 0.9964072262840632, 0.992824314070865, 0.9820209987282145, 0.9892457403848529]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9579940215656421, 0.9783083215677388, 0.992827236359651, 0.9818714555221496, 0.978638858705452]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9875, 0.996875, 0.9936491935483872, 0.984375, 0.9905241935483872]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9625, 0.98125, 0.99375, 0.9839285714285714, 0.98125]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9964065950278898, 0.9964065950278898, 0.9964065950278898, 0.9928342971149082, 0.9964072262840632]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9928606718284063, 0.9927482162368142, 0.9928508203228019, 0.9819246875339871, 0.9856543118124975]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.996875, 0.996875, 0.996875, 0.99375, 0.996875]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.99375, 0.99375, 0.99375, 0.984375, 0.9875]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9892326127515488, 0.992824314070865, 0.9928130926105275, 0.9928130926105275, 0.9821653278659143]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9785438904136848, 0.9855369425061601, 0.992827236359651, 0.9854957586266615, 0.9964192307024862]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.990625, 0.99375, 0.99375, 0.99375, 0.9842741935483872]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.98125, 0.9875, 0.99375, 0.9875, 0.996875]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9964065950278898, 0.9964065950278898, 0.9964072262840632, 0.9964065950278898, 0.9964072262840632]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9928495262968217, 0.9891448475928534, 0.9892371889722547, 0.9854934683213171, 0.9892463464765372]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.996875, 0.996875, 0.996875, 0.996875, 0.996875]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.99375, 0.990625, 0.990625, 0.9870535714285713, 0.990625]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9928268957660057, 0.9928143715109473, 0.9892642357466144, 0.9786263426369469, 0.9820418577451671]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9820765303572804, 0.9782243409763332, 0.9821394542656774, 0.9746973508041998, 0.9716730372139667]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9936491935483872, 0.99375, 0.990625, 0.98125, 0.9842741935483872]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.984375, 0.98125, 0.984375, 0.978125, 0.975]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9964072262840632, 0.9964065950278898, 0.9964065950278898, 0.9928342971149082, 0.9964072262840632]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9964198877486007, 0.9927721392561422, 0.9892371889722547, 0.9782549012278593, 0.9856790212851663]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.996875, 0.996875, 0.996875, 0.9936491935483872, 0.996875]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.996875, 0.99375, 0.990625, 0.9803571428571429, 0.9875]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.992824314070865, 0.9964065950278898, 0.9928143715109473, 0.9714480579273617, 0.9856087600375939]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9856764412073614, 0.9820514331579181, 0.9820544901959086, 0.9818958185485318, 0.9785251655136825]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9936491935483872, 0.996875, 0.99375, 0.975, 0.9873991935483872]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9875, 0.984375, 0.984375, 0.984375, 0.98125]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9964065950278898, 0.9964072262840632, 0.9964072262840632, 0.9964065950278898, 0.9964072262840632]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9857156685786312, 0.9854819551436553, 0.9964198877486007, 0.9783518814760694, 0.9892463464765372]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9875, 0.9875, 0.996875, 0.98125, 0.990625]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9928130926105275, 0.9928130926105275, 0.9964072262840632, 0.9964065950278898, 0.992824314070865]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9893018743849785, 0.9783459954833726, 0.9856568997787664, 0.9891105596127074, 0.982090806588974]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.99375, 0.99375, 0.996875, 0.996875, 0.99375]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.990625, 0.98125, 0.9875, 0.990625, 0.984375]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9964065950278898, 0.9964072262840632, 0.9964072262840632, 0.9964065950278898, 0.9928143715109473]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.9964192307024862, 0.9818662044984, 0.9964198877486007, 0.9819564908554222, 0.9856679603457875]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.996875, 0.9967741935483871, 0.996875, 0.996875, 0.99375]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.996875, 0.9839285714285714, 0.996875, 0.984375, 0.9875]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.019662]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.180803]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.421924]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.019767]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.184143]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.426904]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.95635]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.242036]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.542531]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.025275]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.185523]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.429011]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.526062]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.025934]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.152233]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.142471]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.135199]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.362176]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.237717]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.002998]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.092196]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.736125]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.000584]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.004257]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.039217]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.005206]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.061285]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.863498]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.488009]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.706307]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.021648]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.002502]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.053232]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.5612144044396286, 2.5457626866843905, 2.5418356942619997, 2.539293146597799, 2.5377847478520112]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.050442401777950355, 0.06017927348313135, 0.061298267051212704, 0.059006218380175314, 0.061999072306158996]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04254865835149828, -0.04346017987384345, -0.04418034172442406, -0.04170590366993732, -0.04244327599415186]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.537915712907011, 2.4935164006109853, 2.4953869382023774, 2.492838709444701, 2.498163230505838]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.0497050988031109, 0.0591662853085628, 0.053315900611266294, 0.055386336783991665, 0.05372712332483163]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.019283572706783474, -0.01600727893735569, -0.01821392715692453, -0.017786251536070136, -0.015400967561326593]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.639559475773447, 2.619527196112063, 2.6160037796330795, 2.6166529804901977, 2.6224533924076936]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.028353114212014023, 0.0345885755823542, 0.03449939583720048, 0.03441219065296522, 0.03507634372735623]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.022062056386238663, -0.020176244378681037, -0.022853602465529664, -0.021163174470752933, -0.020875909754702472]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.653485370937755, 2.6175141455126307, 2.6464255404234986, 2.6492856532888673, 2.6408295223512233]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04783855229531962, 0.041043561992205504, 0.0415347367872262, 0.038712407720877105, 0.037043994215011956]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04323136249677372, -0.043513783314338944, -0.041254456052381656, -0.042442764766252694, -0.0416994811088954]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.6783055939069773, 2.6672945534871926, 2.665658423948399, 2.667448637014082, 2.668790668603123]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04701602060106328, 0.038444934458541115, 0.0407887348266964, 0.047735813370958134, 0.04225057452507783]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04152772659195913, -0.0443503191543807, -0.04141326636894978, -0.04314776676539531, -0.042991127970691316]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.6793932545627968, 2.677310977637204, 2.65833235599628, 2.638646908344746, 2.68700081415504]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.028234985133773094, 0.03992847247844881, 0.03811935774685412, 0.030013420642314718, 0.029878324759091374]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04234171077686538, -0.04080274985979561, -0.04235525833762235, -0.04252469566653882, -0.044026712419876525]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.6508311344548496, 2.673078154492598, 2.6811418670867124, 2.7021277804738024, 2.6817530799592677]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-7.185635565031163e-05, 0.02944011197901242, 0.0256765437778914, 0.024894483263464263, 0.02092246627768454]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.017705056918170262, -0.016919835342338443, -0.017789669074267454, -0.017289460467893664, -0.016241068718724307]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.6511465329637143, 2.659214533490054, 2.660528503088785, 2.7067689831189337, 2.6816694763400477]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-6.9736540349158e-05, 0.03144610537896295, 0.03485415517673327, 0.02302994937519968, 0.025907845092508368]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.647502311614751, 2.65181483063329, 2.6435722800406314, 2.6462271183123334, 2.6576701385826613]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03374915735206413, 0.03569872342271257, 0.03459628283784356, 0.030590746249082045, 0.033570107855907194]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04051768906451788, -0.04443799128409704, -0.04439147560449915, -0.04119818924913631, -0.04034731285545759]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.6525682630617458, 2.6273373937672093, 2.6459852385178375, 2.6514713235085283, 2.65317361292397]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03368157986248161, 0.033257309428833884, 0.0333384907608223, 0.031182459635169503, 0.028734134038464736]</t>
   </si>
 </sst>
 </file>
@@ -1698,10 +2092,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1788,7 +2182,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1801,7 +2195,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1837,6 +2231,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1860,7 +2262,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.14"/>
@@ -2441,7 +2843,7 @@
       <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.71"/>
@@ -2908,11 +3310,11 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="19.85"/>
@@ -3323,7 +3725,7 @@
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.42"/>
@@ -3787,10 +4189,10 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.57"/>
   </cols>
@@ -4185,10 +4587,10 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.15"/>
@@ -4510,4 +4912,744 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>